--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -43,6 +43,42 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -50,7 +86,38 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -81,30 +148,17 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -112,60 +166,6 @@
       <charset val="0"/>
       <b val="1"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -190,187 +190,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,11 +384,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -398,26 +404,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -437,6 +423,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -452,17 +447,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,10 +489,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -501,137 +501,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -639,9 +639,17 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1057,16 +1065,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
     <col width="57.375" customWidth="1" style="1" min="1" max="1"/>
-    <col width="11.5" customWidth="1" style="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" s="1">
@@ -1076,22 +1083,78 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>['08cca33d9b6a4caab21469377f09ed44']</t>
-        </is>
-      </c>
+    <row r="2" ht="14.25" customHeight="1" s="1">
+      <c r="A2" s="3" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
-          <t>['9e36c8956b4445d986447f91a52a8955']</t>
+          <t>['666c0b0bf50e411485e9506da5b0b4e5']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n"/>
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>['f6255bdae5cc43d89822b6073b7be793']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>['dc7d086acc1a42319d7790230174b348']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>['5c9336bfb01b4adfbbd44a8d57a0bf46']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>['19a929ba745842cbad2b933ab298574f']</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>['463ef2631ffc4bc98f2b1ba0a79d0568']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>['200c37dc080d4ae28c08cebd1133ed63']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>['4692457acd9c462a9b75a412b29d4793']</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>['0ccc3ba3bfb945759506510f5ac3128e']</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>['4405eaae97784e8892cedf2e7dec981f']</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
